--- a/questions.xlsx
+++ b/questions.xlsx
@@ -12,9 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
-  <si>
-    <t>this is question 1 ? A.this is A option for q1. B.this is B option for q1. C.this is C option for q1. D.and this is D option for q1.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+  <si>
+    <t>this is question 1 ?</t>
+  </si>
+  <si>
+    <t>this is A option for q1.</t>
+  </si>
+  <si>
+    <t>this is B option for q1.</t>
+  </si>
+  <si>
+    <t>this is C option for q1.</t>
+  </si>
+  <si>
+    <t>and this is D option for q1.</t>
   </si>
   <si>
     <t/>
@@ -23,16 +35,52 @@
     <t>A</t>
   </si>
   <si>
-    <t>this is question 2 ? A.this is A option for q2. B.this is B option for q2. C.this is C option for q2. D.and this is D option for q2.</t>
+    <t>this is question 2 ?</t>
+  </si>
+  <si>
+    <t>this is A option for q2.</t>
+  </si>
+  <si>
+    <t>this is B option for q2.</t>
+  </si>
+  <si>
+    <t>this is C option for q2.</t>
+  </si>
+  <si>
+    <t>and this is D option for q2.</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>this is question 3 ? A.this is A option for q3. B.this is B option for q3. C.this is C option for q3. D.and this is D option for q3.</t>
-  </si>
-  <si>
-    <t>this is question 4 ? A.this is A option for q4. B.this is B option for q4. C.this is C option for q4. D.and this is D option for q4.</t>
+    <t>this is question 3 ?</t>
+  </si>
+  <si>
+    <t>this is A option for q3.</t>
+  </si>
+  <si>
+    <t>this is B option for q3.</t>
+  </si>
+  <si>
+    <t>this is C option for q3.</t>
+  </si>
+  <si>
+    <t>and this is D option for q3.</t>
+  </si>
+  <si>
+    <t>this is question 4 ?</t>
+  </si>
+  <si>
+    <t>this is A option for q4.</t>
+  </si>
+  <si>
+    <t>this is B option for q4.</t>
+  </si>
+  <si>
+    <t>this is C option for q4.</t>
+  </si>
+  <si>
+    <t>and this is D option for q4.</t>
   </si>
 </sst>
 </file>
@@ -77,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -91,88 +139,100 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>6</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
